--- a/src/export/export-rekap-sampah-masuk.xlsx
+++ b/src/export/export-rekap-sampah-masuk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohar\projects\admin-banksampah\src\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B40A96-185E-4753-89D8-065C1B9C41CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA3D99C-2D25-40F9-98DF-8932617ED118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,25 +30,25 @@
     <t>NAMA BARANG</t>
   </si>
   <si>
-    <t>TABUNGAN</t>
-  </si>
-  <si>
     <t>QTY</t>
   </si>
   <si>
     <t>NOMINAL</t>
   </si>
   <si>
-    <t>KONTAN</t>
-  </si>
-  <si>
-    <t>TOTAL KESELURUHAN</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
     <t>BULAN MEI 2021</t>
+  </si>
+  <si>
+    <t>TABUNG</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -133,17 +133,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +428,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,56 +444,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
